--- a/ChampionsData/UCL_playerstats_orig.xlsx
+++ b/ChampionsData/UCL_playerstats_orig.xlsx
@@ -831,7 +831,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1149,7 +1149,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -2305,7 +2305,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brest </t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2517,12 +2517,12 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ligue 1 </t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -2623,17 +2623,17 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Real Madrid </t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Liga </t>
+          <t>La Liga</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juventus </t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3799,7 +3799,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -4011,7 +4011,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -4541,7 +4541,7 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4753,7 +4753,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4859,7 +4859,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -6555,7 +6555,7 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -8983,7 +8983,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -10149,7 +10149,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juventus </t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
@@ -11739,7 +11739,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -12799,7 +12799,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juventus </t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -14823,7 +14823,7 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
@@ -14929,7 +14929,7 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
@@ -15035,7 +15035,7 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I138" t="inlineStr">
@@ -15247,7 +15247,7 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
@@ -15565,7 +15565,7 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
@@ -15661,7 +15661,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juventus </t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -15883,7 +15883,7 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I146" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I149" t="inlineStr">
@@ -16837,7 +16837,7 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -17473,7 +17473,7 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
@@ -17579,7 +17579,7 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Quarter_finals </t>
+          <t>Quarter_finals</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
@@ -17791,7 +17791,7 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
@@ -17897,7 +17897,7 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
@@ -18210,7 +18210,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Premier League </t>
+          <t>Premier League</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -19487,7 +19487,7 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Semi_finals </t>
+          <t>Semi_finals</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
@@ -21067,7 +21067,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -22233,12 +22233,12 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brest </t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ligue 1 </t>
+          <t>Ligue 1</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -22445,7 +22445,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lille </t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -22551,7 +22551,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juventus </t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
